--- a/Game/DuckRevo.xlsx
+++ b/Game/DuckRevo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="93">
   <si>
     <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Environment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +373,22 @@
   </si>
   <si>
     <t>Boss Only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow Intro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +760,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -781,16 +793,16 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -807,16 +819,16 @@
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -833,16 +845,16 @@
         <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -859,16 +871,16 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -878,11 +890,17 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -906,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -943,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -956,7 +974,8 @@
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
+    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
     <col min="12" max="12" width="11.625" style="2" bestFit="1" customWidth="1"/>
@@ -968,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
@@ -1035,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>24</v>
@@ -1091,10 +1110,10 @@
     <row r="12" spans="1:12" s="3" customFormat="1"/>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1158,19 +1177,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>27</v>
@@ -1214,10 +1233,10 @@
     </row>
     <row r="30" spans="1:10" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="3" customFormat="1"/>
@@ -1283,16 +1302,16 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>27</v>
@@ -1344,10 +1363,10 @@
     <row r="45" spans="1:11" s="3" customFormat="1"/>
     <row r="46" spans="1:11">
       <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1411,16 +1430,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>27</v>
@@ -1469,10 +1488,10 @@
     </row>
     <row r="62" spans="1:10" s="3" customFormat="1">
       <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="3" customFormat="1"/>
@@ -1492,11 +1511,11 @@
       <c r="G66" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="3">
-        <v>11</v>
-      </c>
       <c r="I66" s="3">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="J66" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="3" customFormat="1">
@@ -1506,10 +1525,10 @@
       <c r="E67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1526,8 +1545,8 @@
       <c r="G68" s="3">
         <v>9</v>
       </c>
-      <c r="J68" s="3">
-        <v>15</v>
+      <c r="H68" s="3">
+        <v>11</v>
       </c>
       <c r="K68" s="3">
         <v>16</v>
@@ -1538,19 +1557,19 @@
         <v>22</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>27</v>
+      <c r="H69" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>10</v>
@@ -1563,11 +1582,11 @@
       <c r="E70" s="3">
         <v>6</v>
       </c>
-      <c r="H70" s="3">
-        <v>12</v>
-      </c>
       <c r="I70" s="3">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="J70" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="3" customFormat="1">
@@ -1580,10 +1599,10 @@
       <c r="G71" s="3">
         <v>10</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1598,10 +1617,10 @@
     <row r="76" spans="1:11" s="3" customFormat="1"/>
     <row r="77" spans="1:11">
       <c r="A77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -1663,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>27</v>
@@ -1717,10 +1736,10 @@
     </row>
     <row r="89" spans="1:10" s="3" customFormat="1">
       <c r="A89" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1"/>
@@ -1844,10 +1863,10 @@
     <row r="101" spans="1:7" s="3" customFormat="1"/>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -1857,7 +1876,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="B106" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -1867,7 +1886,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -1877,7 +1896,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1893,10 +1912,10 @@
         <v>22</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1906,7 +1925,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1916,7 +1935,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="B121" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1926,7 +1945,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
